--- a/data_for_paper/Tables/features_table_for_paper_updated.xlsx
+++ b/data_for_paper/Tables/features_table_for_paper_updated.xlsx
@@ -953,12 +953,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -995,7 +1001,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1012,6 +1018,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1021,6 +1031,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1032,9 +1102,9 @@
   <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A272" activeCellId="0" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6823,7 +6893,7 @@
       <c r="F254" s="3"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B255" s="1" t="n">
@@ -6961,7 +7031,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="A261" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B261" s="1" t="n">
@@ -7030,7 +7100,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="A264" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B264" s="1" t="n">
@@ -7214,7 +7284,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="A272" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B272" s="1" t="n">
